--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3266.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3266.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237862331645741</v>
+        <v>2.919331073760986</v>
       </c>
       <c r="B1">
-        <v>1.7101325067813</v>
+        <v>2.93938684463501</v>
       </c>
       <c r="C1">
-        <v>2.975172759420543</v>
+        <v>1.847727179527283</v>
       </c>
       <c r="D1">
-        <v>5.396018985177931</v>
+        <v>1.57336151599884</v>
       </c>
       <c r="E1">
-        <v>1.088678933115252</v>
+        <v>1.449084401130676</v>
       </c>
     </row>
   </sheetData>
